--- a/testdata/LoginData.xlsx
+++ b/testdata/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechnoCredits\August2022\hybriddrivenframework-Sanket\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A6DEF6-1561-44A5-AD71-CAA2A033D16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860A68F3-3A32-47B7-86FB-522E9A187EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
